--- a/inst/extdata/planilha_etiquetas_semlabels.xlsx
+++ b/inst/extdata/planilha_etiquetas_semlabels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FAO\Innovare\innoutils\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1EB6F7-BE6B-4868-9B5F-8F2BDBE6299D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF59A8F-1151-4B86-BEC2-6392DBC1710E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Etiq002</t>
   </si>
@@ -151,30 +151,6 @@
     <t>Etiq015</t>
   </si>
   <si>
-    <t>Etiq016</t>
-  </si>
-  <si>
-    <t>Etiq020</t>
-  </si>
-  <si>
-    <t>Etiq021</t>
-  </si>
-  <si>
-    <t>Etiq022</t>
-  </si>
-  <si>
-    <t>Etiq023</t>
-  </si>
-  <si>
-    <t>Etiq024</t>
-  </si>
-  <si>
-    <t>Etiq025</t>
-  </si>
-  <si>
-    <t>Etiq026</t>
-  </si>
-  <si>
     <t>Esca105</t>
   </si>
   <si>
@@ -185,18 +161,6 @@
   </si>
   <si>
     <t>Esca210</t>
-  </si>
-  <si>
-    <t>Etiq037</t>
-  </si>
-  <si>
-    <t>Etiq043</t>
-  </si>
-  <si>
-    <t>Etiq044</t>
-  </si>
-  <si>
-    <t>Etiq045</t>
   </si>
   <si>
     <t>Esca310</t>
@@ -215,63 +179,6 @@
   </si>
   <si>
     <t>Etiq014</t>
-  </si>
-  <si>
-    <t>Etiq017</t>
-  </si>
-  <si>
-    <t>Etiq018</t>
-  </si>
-  <si>
-    <t>Etiq019</t>
-  </si>
-  <si>
-    <t>Etiq027</t>
-  </si>
-  <si>
-    <t>Etiq028</t>
-  </si>
-  <si>
-    <t>Etiq029</t>
-  </si>
-  <si>
-    <t>Etiq030</t>
-  </si>
-  <si>
-    <t>Etiq031</t>
-  </si>
-  <si>
-    <t>Etiq032</t>
-  </si>
-  <si>
-    <t>Etiq033</t>
-  </si>
-  <si>
-    <t>Etiq034</t>
-  </si>
-  <si>
-    <t>Etiq035</t>
-  </si>
-  <si>
-    <t>Etiq036</t>
-  </si>
-  <si>
-    <t>Etiq038</t>
-  </si>
-  <si>
-    <t>Etiq039</t>
-  </si>
-  <si>
-    <t>Etiq040</t>
-  </si>
-  <si>
-    <t>Etiq041</t>
-  </si>
-  <si>
-    <t>Etiq042</t>
-  </si>
-  <si>
-    <t>Etiq046</t>
   </si>
   <si>
     <t>auxiliar</t>
@@ -664,7 +571,7 @@
   <dimension ref="A1:E638"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="C445" sqref="C445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,7 +584,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>12</v>
@@ -1075,7 +982,7 @@
         <v>Esca110</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -1153,7 +1060,7 @@
         <v>Esca105</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -1333,7 +1240,7 @@
         <v>Esca210</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -1411,7 +1318,7 @@
         <v>Esca205</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -1726,7 +1633,7 @@
         <v>Esca310</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -1804,7 +1711,7 @@
         <v>Esca305</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -1873,7 +1780,7 @@
         <v>Esca304</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -1933,7 +1840,7 @@
         <v>Esca303</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -1984,7 +1891,7 @@
         <v>Etiq013</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -2017,7 +1924,7 @@
         <v>Etiq014</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -2099,2317 +2006,273 @@
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Etiq016</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Etiq016</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>18</v>
+      <c r="A167" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Etiq016</v>
-      </c>
-      <c r="B169">
-        <v>1</v>
-      </c>
+      <c r="B169"/>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Etiq016</v>
-      </c>
-      <c r="B170">
-        <v>2</v>
-      </c>
+      <c r="B170"/>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Etiq016</v>
-      </c>
-      <c r="B171">
-        <v>3</v>
-      </c>
+      <c r="B171"/>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Etiq016</v>
-      </c>
-      <c r="B172">
-        <v>4</v>
-      </c>
+      <c r="B172"/>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Etiq016</v>
-      </c>
-      <c r="B173">
-        <v>5</v>
-      </c>
+      <c r="B173"/>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Etiq016</v>
-      </c>
-      <c r="B174">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Etiq017</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Etiq017</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Etiq017</v>
-      </c>
-      <c r="B177">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Etiq017</v>
-      </c>
-      <c r="B178">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Etiq017</v>
-      </c>
-      <c r="B179">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Etiq017</v>
-      </c>
-      <c r="B180">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Etiq017</v>
-      </c>
-      <c r="B181">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Etiq018</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Etiq018</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Etiq018</v>
-      </c>
-      <c r="B184" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Etiq018</v>
-      </c>
-      <c r="B185" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Etiq018</v>
-      </c>
-      <c r="B186" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Etiq019</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Etiq019</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Etiq019</v>
-      </c>
-      <c r="B189" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Etiq019</v>
-      </c>
-      <c r="B190" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Etiq019</v>
-      </c>
-      <c r="B191" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Etiq019</v>
-      </c>
-      <c r="B192" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Etiq020</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Etiq020</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Etiq020</v>
-      </c>
-      <c r="B195">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Etiq020</v>
-      </c>
-      <c r="B196">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" s="1" t="str">
-        <f t="shared" ref="A197:A260" si="4">IF(B197="",B198,A196)</f>
-        <v>Etiq021</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Etiq021</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Etiq021</v>
-      </c>
-      <c r="B199" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Etiq021</v>
-      </c>
-      <c r="B200" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Etiq021</v>
-      </c>
-      <c r="B201" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Etiq021</v>
-      </c>
-      <c r="B202" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Etiq022</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Etiq022</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Etiq022</v>
-      </c>
-      <c r="B205" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Etiq022</v>
-      </c>
-      <c r="B206" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Etiq022</v>
-      </c>
-      <c r="B207" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Etiq022</v>
-      </c>
-      <c r="B208" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Etiq022</v>
-      </c>
-      <c r="B209" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Etiq022</v>
-      </c>
-      <c r="B210" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Etiq023</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Etiq023</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Etiq023</v>
-      </c>
-      <c r="B213" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Etiq023</v>
-      </c>
-      <c r="B214" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Etiq023</v>
-      </c>
-      <c r="B215" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Etiq024</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Etiq024</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Etiq024</v>
-      </c>
-      <c r="B218" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Etiq024</v>
-      </c>
-      <c r="B219" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Etiq025</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Etiq025</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A222" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Etiq025</v>
-      </c>
-      <c r="B222" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A223" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Etiq025</v>
-      </c>
-      <c r="B223" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A224" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Etiq025</v>
-      </c>
-      <c r="B224" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Etiq025</v>
-      </c>
-      <c r="B225" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Etiq025</v>
-      </c>
-      <c r="B226" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Etiq026</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Etiq026</v>
-      </c>
-      <c r="B228" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Etiq026</v>
-      </c>
-      <c r="B229" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Etiq026</v>
-      </c>
-      <c r="B230" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Etiq027</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Etiq027</v>
-      </c>
-      <c r="B232" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Etiq027</v>
-      </c>
-      <c r="B233" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Etiq027</v>
-      </c>
-      <c r="B234" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Etiq027</v>
-      </c>
-      <c r="B235" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Etiq028</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Etiq028</v>
-      </c>
-      <c r="B237" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Etiq028</v>
-      </c>
-      <c r="B238" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Etiq028</v>
-      </c>
-      <c r="B239" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Etiq028</v>
-      </c>
-      <c r="B240" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Etiq028</v>
-      </c>
-      <c r="B241" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Etiq028</v>
-      </c>
-      <c r="B242" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Etiq028</v>
-      </c>
-      <c r="B243" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Etiq029</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Etiq029</v>
-      </c>
-      <c r="B245" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Etiq029</v>
-      </c>
-      <c r="B246" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Etiq029</v>
-      </c>
-      <c r="B247" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Etiq029</v>
-      </c>
-      <c r="B248" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Etiq029</v>
-      </c>
-      <c r="B249" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Etiq030</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Etiq030</v>
-      </c>
-      <c r="B251" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Etiq030</v>
-      </c>
-      <c r="B252" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Etiq030</v>
-      </c>
-      <c r="B253" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Etiq030</v>
-      </c>
-      <c r="B254" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Etiq030</v>
-      </c>
-      <c r="B255" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Etiq031</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Etiq031</v>
-      </c>
-      <c r="B257" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Etiq031</v>
-      </c>
-      <c r="B258" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Etiq031</v>
-      </c>
-      <c r="B259" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A260" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Etiq031</v>
-      </c>
-      <c r="B260" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" s="1" t="str">
-        <f t="shared" ref="A261:A324" si="5">IF(B261="",B262,A260)</f>
-        <v>Etiq031</v>
-      </c>
-      <c r="B261" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Etiq031</v>
-      </c>
-      <c r="B262" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A263" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Etiq032</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A264" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Etiq032</v>
-      </c>
-      <c r="B264" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A265" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Etiq032</v>
-      </c>
-      <c r="B265" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A266" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Etiq032</v>
-      </c>
-      <c r="B266" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A267" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Etiq032</v>
-      </c>
-      <c r="B267" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A268" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Etiq032</v>
-      </c>
-      <c r="B268" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A269" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Etiq033</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A270" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Etiq033</v>
-      </c>
-      <c r="B270" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Etiq033</v>
-      </c>
-      <c r="B271" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A272" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Etiq033</v>
-      </c>
-      <c r="B272" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Etiq034</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Etiq034</v>
-      </c>
-      <c r="B274" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A275" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Etiq034</v>
-      </c>
-      <c r="B275" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A276" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Etiq034</v>
-      </c>
-      <c r="B276" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A277" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Etiq034</v>
-      </c>
-      <c r="B277" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A278" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Etiq034</v>
-      </c>
-      <c r="B278" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Etiq034</v>
-      </c>
-      <c r="B279" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A280" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Etiq034</v>
-      </c>
-      <c r="B280" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Etiq034</v>
-      </c>
-      <c r="B281" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Etiq034</v>
-      </c>
-      <c r="B282" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A283" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Etiq034</v>
-      </c>
-      <c r="B283" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A284" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Etiq034</v>
-      </c>
-      <c r="B284" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A285" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Etiq035</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A286" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Etiq035</v>
-      </c>
-      <c r="B286" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Etiq035</v>
-      </c>
-      <c r="B287" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A288" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Etiq035</v>
-      </c>
-      <c r="B288" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A289" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Etiq035</v>
-      </c>
-      <c r="B289" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A290" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Etiq036</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A291" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Etiq036</v>
-      </c>
-      <c r="B291" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A292" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Etiq036</v>
-      </c>
-      <c r="B292" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A293" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Etiq036</v>
-      </c>
-      <c r="B293" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A294" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Etiq036</v>
-      </c>
-      <c r="B294" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A295" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Etiq037</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A296" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Etiq037</v>
-      </c>
-      <c r="B296" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A297" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Etiq037</v>
-      </c>
-      <c r="B297">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A298" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Etiq037</v>
-      </c>
-      <c r="B298">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A299" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Etiq037</v>
-      </c>
-      <c r="B299">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A300" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Etiq037</v>
-      </c>
-      <c r="B300">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A301" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Etiq037</v>
-      </c>
-      <c r="B301">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A302" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Etiq037</v>
-      </c>
-      <c r="B302">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A303" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Etiq037</v>
-      </c>
-      <c r="B303">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A304" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Etiq037</v>
-      </c>
-      <c r="B304">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A305" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Etiq038</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A306" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Etiq038</v>
-      </c>
-      <c r="B306" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A307" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Etiq038</v>
-      </c>
-      <c r="B307" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A308" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Etiq038</v>
-      </c>
-      <c r="B308" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A309" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Etiq038</v>
-      </c>
-      <c r="B309" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A310" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Etiq038</v>
-      </c>
-      <c r="B310" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A311" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Etiq038</v>
-      </c>
-      <c r="B311" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A312" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Etiq038</v>
-      </c>
-      <c r="B312" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A313" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Etiq039</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A314" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Etiq039</v>
-      </c>
-      <c r="B314" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A315" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Etiq039</v>
-      </c>
-      <c r="B315" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A316" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Etiq039</v>
-      </c>
-      <c r="B316" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A317" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Etiq039</v>
-      </c>
-      <c r="B317" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A318" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Etiq039</v>
-      </c>
-      <c r="B318" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A319" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Etiq039</v>
-      </c>
-      <c r="B319" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A320" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Etiq039</v>
-      </c>
-      <c r="B320" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A321" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Etiq039</v>
-      </c>
-      <c r="B321" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A322" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Etiq039</v>
-      </c>
-      <c r="B322" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A323" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Etiq039</v>
-      </c>
-      <c r="B323" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A324" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Etiq039</v>
-      </c>
-      <c r="B324" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A325" s="1" t="str">
-        <f t="shared" ref="A325:A388" si="6">IF(B325="",B326,A324)</f>
-        <v>Etiq039</v>
-      </c>
-      <c r="B325" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A326" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Etiq039</v>
-      </c>
-      <c r="B326" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A327" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Etiq039</v>
-      </c>
-      <c r="B327" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A328" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Etiq039</v>
-      </c>
-      <c r="B328" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A329" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Etiq039</v>
-      </c>
-      <c r="B329" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A330" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Etiq039</v>
-      </c>
-      <c r="B330" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A331" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Etiq039</v>
-      </c>
-      <c r="B331" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A332" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Etiq039</v>
-      </c>
-      <c r="B332" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A333" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Etiq039</v>
-      </c>
-      <c r="B333" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A334" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Etiq039</v>
-      </c>
-      <c r="B334" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A335" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Etiq039</v>
-      </c>
-      <c r="B335" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A336" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Etiq039</v>
-      </c>
-      <c r="B336" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A337" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Etiq039</v>
-      </c>
-      <c r="B337" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A338" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Etiq039</v>
-      </c>
-      <c r="B338" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A339" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Etiq040</v>
-      </c>
+      <c r="B174"/>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B177"/>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B178"/>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B179"/>
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B180"/>
+    </row>
+    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B181"/>
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B195"/>
+    </row>
+    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B196"/>
+    </row>
+    <row r="265" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B265" s="3"/>
+    </row>
+    <row r="266" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B266" s="3"/>
+    </row>
+    <row r="267" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B267" s="3"/>
+    </row>
+    <row r="268" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B268" s="3"/>
+    </row>
+    <row r="271" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B271" s="3"/>
+    </row>
+    <row r="272" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B272" s="3"/>
+    </row>
+    <row r="297" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B297"/>
+    </row>
+    <row r="298" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B298"/>
+    </row>
+    <row r="299" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B299"/>
+    </row>
+    <row r="300" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B300"/>
+    </row>
+    <row r="301" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B301"/>
+    </row>
+    <row r="302" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B302"/>
+    </row>
+    <row r="303" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B303"/>
+    </row>
+    <row r="304" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B304"/>
+    </row>
+    <row r="339" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B339"/>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A340" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Etiq040</v>
-      </c>
-      <c r="B340" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A341" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Etiq040</v>
-      </c>
-      <c r="B341">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A342" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Etiq040</v>
-      </c>
-      <c r="B342">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A343" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Etiq040</v>
-      </c>
-      <c r="B343">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A344" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Etiq040</v>
-      </c>
-      <c r="B344">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A345" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Etiq040</v>
-      </c>
-      <c r="B345">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A346" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Etiq040</v>
-      </c>
-      <c r="B346">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A347" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Etiq040</v>
-      </c>
-      <c r="B347">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A348" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Etiq040</v>
-      </c>
-      <c r="B348">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A349" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Etiq040</v>
-      </c>
-      <c r="B349">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A350" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Etiq040</v>
-      </c>
-      <c r="B350">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A351" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Etiq040</v>
-      </c>
-      <c r="B351">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A352" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Etiq040</v>
-      </c>
-      <c r="B352">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A353" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Etiq040</v>
-      </c>
-      <c r="B353">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A354" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Etiq040</v>
-      </c>
-      <c r="B354">
-        <v>14</v>
-      </c>
+    <row r="340" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B340"/>
+    </row>
+    <row r="341" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B341"/>
+    </row>
+    <row r="342" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B342"/>
+    </row>
+    <row r="343" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B343"/>
+    </row>
+    <row r="344" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B344"/>
+    </row>
+    <row r="345" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B345"/>
+    </row>
+    <row r="346" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B346"/>
+    </row>
+    <row r="347" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B347"/>
+    </row>
+    <row r="348" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B348"/>
+    </row>
+    <row r="349" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B349"/>
+    </row>
+    <row r="350" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B350"/>
+    </row>
+    <row r="351" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B351"/>
+    </row>
+    <row r="352" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B352"/>
+    </row>
+    <row r="353" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B353"/>
+    </row>
+    <row r="354" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B354"/>
       <c r="D354"/>
       <c r="E354"/>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A355" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Etiq040</v>
-      </c>
-      <c r="B355" s="1">
-        <v>15</v>
-      </c>
+    <row r="355" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D355"/>
       <c r="E355"/>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A356" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Etiq040</v>
-      </c>
-      <c r="B356" s="1">
-        <v>16</v>
-      </c>
+    <row r="356" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D356"/>
       <c r="E356"/>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A357" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Etiq040</v>
-      </c>
-      <c r="B357" s="1">
-        <v>17</v>
-      </c>
+    <row r="357" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D357"/>
       <c r="E357"/>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A358" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Etiq040</v>
-      </c>
-      <c r="B358">
-        <v>88</v>
-      </c>
+    <row r="358" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B358"/>
       <c r="D358"/>
       <c r="E358"/>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A359" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Etiq041</v>
-      </c>
+    <row r="359" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B359"/>
       <c r="D359"/>
       <c r="E359"/>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A360" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Etiq041</v>
-      </c>
-      <c r="B360" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A361" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Etiq041</v>
-      </c>
-      <c r="B361">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A362" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Etiq041</v>
-      </c>
-      <c r="B362">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A363" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Etiq041</v>
-      </c>
-      <c r="B363">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A364" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Etiq041</v>
-      </c>
-      <c r="B364">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A365" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Etiq041</v>
-      </c>
-      <c r="B365">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A366" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Etiq041</v>
-      </c>
-      <c r="B366">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A367" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Etiq041</v>
-      </c>
-      <c r="B367">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A368" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Etiq041</v>
-      </c>
-      <c r="B368">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A369" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Etiq042</v>
-      </c>
+    <row r="360" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B360"/>
+    </row>
+    <row r="361" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B361"/>
+    </row>
+    <row r="362" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B362"/>
+    </row>
+    <row r="363" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B363"/>
+    </row>
+    <row r="364" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B364"/>
+    </row>
+    <row r="365" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B365"/>
+    </row>
+    <row r="366" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B366"/>
+    </row>
+    <row r="367" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B367"/>
+    </row>
+    <row r="368" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B368"/>
+    </row>
+    <row r="369" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B369"/>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A370" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Etiq042</v>
-      </c>
-      <c r="B370" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A371" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Etiq042</v>
-      </c>
-      <c r="B371">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A372" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Etiq042</v>
-      </c>
-      <c r="B372">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A373" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Etiq042</v>
-      </c>
-      <c r="B373">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A374" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Etiq042</v>
-      </c>
-      <c r="B374">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A375" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Etiq042</v>
-      </c>
-      <c r="B375" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A376" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Etiq042</v>
-      </c>
-      <c r="B376" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A377" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Etiq042</v>
-      </c>
-      <c r="B377" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A378" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Etiq042</v>
-      </c>
-      <c r="B378" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A379" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Etiq042</v>
-      </c>
-      <c r="B379" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A380" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Etiq042</v>
-      </c>
-      <c r="B380" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A381" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Etiq042</v>
-      </c>
-      <c r="B381" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A382" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Etiq042</v>
-      </c>
-      <c r="B382" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A383" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Etiq042</v>
-      </c>
-      <c r="B383" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A384" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Etiq042</v>
-      </c>
-      <c r="B384" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A385" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Etiq042</v>
-      </c>
-      <c r="B385" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A386" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Etiq042</v>
-      </c>
-      <c r="B386" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A387" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Etiq042</v>
-      </c>
-      <c r="B387" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A388" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Etiq042</v>
-      </c>
-      <c r="B388" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A389" s="1" t="str">
-        <f t="shared" ref="A389:A431" si="7">IF(B389="",B390,A388)</f>
-        <v>Etiq042</v>
-      </c>
-      <c r="B389" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A390" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>Etiq042</v>
-      </c>
-      <c r="B390" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A391" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>Etiq042</v>
-      </c>
-      <c r="B391" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A392" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>Etiq042</v>
-      </c>
-      <c r="B392" s="1">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A393" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>Etiq042</v>
-      </c>
-      <c r="B393" s="1">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A394" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>Etiq043</v>
-      </c>
+    <row r="370" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B370"/>
+    </row>
+    <row r="371" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B371"/>
+    </row>
+    <row r="372" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B372"/>
+    </row>
+    <row r="373" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B373"/>
+    </row>
+    <row r="374" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B374"/>
+    </row>
+    <row r="394" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B394"/>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A395" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>Etiq043</v>
-      </c>
-      <c r="B395" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A396" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>Etiq043</v>
-      </c>
-      <c r="B396">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A397" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>Etiq043</v>
-      </c>
-      <c r="B397">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A398" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>Etiq043</v>
-      </c>
-      <c r="B398">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A399" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>Etiq043</v>
-      </c>
-      <c r="B399">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A400" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>Etiq043</v>
-      </c>
-      <c r="B400">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A401" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>Etiq043</v>
-      </c>
-      <c r="B401">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A402" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>Etiq043</v>
-      </c>
-      <c r="B402" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A403" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>Etiq043</v>
-      </c>
-      <c r="B403" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A404" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>Etiq043</v>
-      </c>
-      <c r="B404" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A405" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>Etiq043</v>
-      </c>
-      <c r="B405" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A406" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>Etiq043</v>
-      </c>
-      <c r="B406" s="1">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A407" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>Etiq043</v>
-      </c>
-      <c r="B407" s="1">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A408" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>Etiq044</v>
-      </c>
+    <row r="395" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B395"/>
+    </row>
+    <row r="396" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B396"/>
+    </row>
+    <row r="397" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B397"/>
+    </row>
+    <row r="398" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B398"/>
+    </row>
+    <row r="399" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B399"/>
+    </row>
+    <row r="400" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B400"/>
+    </row>
+    <row r="401" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B401"/>
+    </row>
+    <row r="408" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B408"/>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A409" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>Etiq044</v>
-      </c>
-      <c r="B409" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A410" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>Etiq044</v>
-      </c>
-      <c r="B410">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A411" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>Etiq044</v>
-      </c>
-      <c r="B411">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A412" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>Etiq044</v>
-      </c>
-      <c r="B412" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A413" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>Etiq044</v>
-      </c>
-      <c r="B413" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A414" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>Etiq044</v>
-      </c>
-      <c r="B414" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A415" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>Etiq044</v>
-      </c>
-      <c r="B415" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A416" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>Etiq044</v>
-      </c>
-      <c r="B416" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A417" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>Etiq044</v>
-      </c>
-      <c r="B417" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A418" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>Etiq044</v>
-      </c>
-      <c r="B418" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A419" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>Etiq044</v>
-      </c>
-      <c r="B419" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A420" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>Etiq044</v>
-      </c>
-      <c r="B420" s="1">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A421" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>Etiq045</v>
-      </c>
+    <row r="409" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B409"/>
+    </row>
+    <row r="410" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B410"/>
+    </row>
+    <row r="411" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B411"/>
+    </row>
+    <row r="421" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B421"/>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A422" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>Etiq045</v>
-      </c>
-      <c r="B422" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A423" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>Etiq045</v>
-      </c>
-      <c r="B423" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A424" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>Etiq045</v>
-      </c>
-      <c r="B424" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A425" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>Etiq046</v>
-      </c>
+    <row r="422" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B422"/>
+    </row>
+    <row r="425" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B425"/>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A426" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>Etiq046</v>
-      </c>
-      <c r="B426" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A427" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>Etiq046</v>
-      </c>
-      <c r="B427">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A428" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>Etiq046</v>
-      </c>
-      <c r="B428">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A429" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>Etiq046</v>
-      </c>
-      <c r="B429">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A430" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>Etiq046</v>
-      </c>
-      <c r="B430">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A431" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>Etiq046</v>
-      </c>
-      <c r="B431">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="426" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B426"/>
+    </row>
+    <row r="427" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B427"/>
+    </row>
+    <row r="428" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B428"/>
+    </row>
+    <row r="429" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B429"/>
+    </row>
+    <row r="430" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B430"/>
+    </row>
+    <row r="431" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B431"/>
+    </row>
+    <row r="432" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B432"/>
     </row>
     <row r="433" spans="2:2" x14ac:dyDescent="0.25">
@@ -5040,6 +2903,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="19397b10-8b96-4e67-80cb-400d1e6de2e5" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6d2a7be9-4522-443d-a0fc-c16f72230510">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010016A7BEEFD127A74BA94C7CA6EB57BEA1" ma:contentTypeVersion="16" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="42f2c6a94caf37449014d155f6b93152">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6d2a7be9-4522-443d-a0fc-c16f72230510" xmlns:ns3="19397b10-8b96-4e67-80cb-400d1e6de2e5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="924efdde4184fd22d6afd062a8699b47" ns2:_="" ns3:_="">
     <xsd:import namespace="6d2a7be9-4522-443d-a0fc-c16f72230510"/>
@@ -5282,27 +3165,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="19397b10-8b96-4e67-80cb-400d1e6de2e5" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6d2a7be9-4522-443d-a0fc-c16f72230510">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9C1DE22-B66E-4B5D-A4DA-23FE964DFFB0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25CC1094-0935-44E6-AE6C-18EB2922A8B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="19397b10-8b96-4e67-80cb-400d1e6de2e5"/>
+    <ds:schemaRef ds:uri="6d2a7be9-4522-443d-a0fc-c16f72230510"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06720827-5866-4E56-B0E5-5F9413BA7434}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5319,23 +3201,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25CC1094-0935-44E6-AE6C-18EB2922A8B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="19397b10-8b96-4e67-80cb-400d1e6de2e5"/>
-    <ds:schemaRef ds:uri="6d2a7be9-4522-443d-a0fc-c16f72230510"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9C1DE22-B66E-4B5D-A4DA-23FE964DFFB0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>